--- a/demos/9_borrowingLykert/practice_trial.xlsx
+++ b/demos/9_borrowingLykert/practice_trial.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casillas/Desktop/borrowingLykert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Piper/Desktop/1. Audio Stuff/borrowing Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>stimuli</t>
   </si>
   <si>
-    <t>stim/final_10_10.wav</t>
+    <t>stim/mE_Arizona.wav</t>
+  </si>
+  <si>
+    <t>stim/MS_Arizona.wav</t>
+  </si>
+  <si>
+    <t>stim/t01_freeway.wav</t>
+  </si>
+  <si>
+    <t>stim/t02_barbies.wav</t>
+  </si>
+  <si>
+    <t>stim/t02_senior.wav</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,6 +433,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
